--- a/Форма отчета.xlsx
+++ b/Форма отчета.xlsx
@@ -695,7 +695,7 @@
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>'12.06.2024' - '05.06.2024'</t>
+          <t>'25.06.2024' - '18.06.2024'</t>
         </is>
       </c>
       <c r="D16" s="6" t="n"/>
@@ -762,13 +762,13 @@
       <c r="C20" s="17" t="n"/>
       <c r="D20" s="18" t="n"/>
       <c r="E20" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" s="10">
@@ -781,13 +781,13 @@
       <c r="C21" s="17" t="n"/>
       <c r="D21" s="18" t="n"/>
       <c r="E21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="10">
@@ -800,13 +800,13 @@
       <c r="C22" s="17" t="n"/>
       <c r="D22" s="18" t="n"/>
       <c r="E22" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1" s="10">
@@ -819,13 +819,13 @@
       <c r="C23" s="17" t="n"/>
       <c r="D23" s="18" t="n"/>
       <c r="E23" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="10">
@@ -868,7 +868,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>6000 руб.</t>
+          <t>9735.0 руб.</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">

--- a/Форма отчета.xlsx
+++ b/Форма отчета.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22155" yWindow="915" windowWidth="23745" windowHeight="19965" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,7 +57,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -67,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,6 +115,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -123,68 +153,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -637,41 +643,41 @@
   <dimension ref="A10:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="10" min="5" max="5"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
-    <col width="40.7109375" customWidth="1" style="10" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" style="10" min="8" max="9"/>
+    <col width="18" customWidth="1" style="9" min="5" max="5"/>
+    <col width="23.28515625" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="40.7109375" customWidth="1" style="9" min="7" max="7"/>
+    <col width="9.140625" customWidth="1" style="9" min="8" max="9"/>
   </cols>
   <sheetData>
-    <row r="10" ht="16.5" customHeight="1" s="10">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
-      <c r="G10" s="8" t="n"/>
-      <c r="H10" s="8" t="n"/>
-      <c r="I10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" s="10">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="H11" s="8" t="n"/>
-      <c r="I11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="10">
-      <c r="A12" s="9" t="inlineStr">
+    <row r="10" ht="16.5" customHeight="1" s="9">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" s="9">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="9">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>ОТЧЕТ О ТЕКУЩИХ ПОКАЗАТЕЛЯХ ЗА ПЕРИОД</t>
         </is>
@@ -679,188 +685,188 @@
     </row>
     <row r="13"/>
     <row r="14"/>
-    <row r="15" ht="16.5" customHeight="1" s="10">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1" s="10">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>'25.06.2024' - '18.06.2024'</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
-      <c r="F16" s="6" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="8" t="n"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1" s="10">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1" s="10">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="8" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="10">
+    <row r="15" ht="16.5" customHeight="1" s="9">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" s="9">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>'08.09.2024' - '15.09.2024'</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" s="9">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" s="9">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="9">
       <c r="A19" s="14" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="17" t="n"/>
-      <c r="D19" s="18" t="n"/>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Всего</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>На исполнении</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>Исполнено за период</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>Необходимо исполнить за текущий период</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" s="10">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>Просрочены</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" s="9">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Технологическое присоединение</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="17" t="n"/>
-      <c r="D20" s="18" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="7" t="n"/>
       <c r="E20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" s="9">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Жалобы и обращения</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1" s="10">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>Жалобы и обращения</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="17" t="n"/>
-      <c r="D21" s="18" t="n"/>
-      <c r="E21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1" s="10">
-      <c r="A22" s="16" t="inlineStr">
+    </row>
+    <row r="22" ht="16.5" customHeight="1" s="9">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Дополнительные сервисы</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="17" t="n"/>
-      <c r="D22" s="18" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="7" t="n"/>
       <c r="E22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1" s="10">
-      <c r="A23" s="16" t="inlineStr">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" s="9">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Задания</t>
         </is>
       </c>
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="17" t="n"/>
-      <c r="D23" s="18" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="7" t="n"/>
       <c r="E23" s="2" t="n">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1" s="10">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
-      <c r="H24" s="8" t="n"/>
-      <c r="I24" s="8" t="n"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1" s="10">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" s="9">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" s="9">
       <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Общая иноформация по дополнительным сервисам:</t>
         </is>
       </c>
-      <c r="G25" s="8" t="n"/>
-      <c r="H25" s="8" t="n"/>
-      <c r="I25" s="8" t="n"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1" s="10">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="8" t="n"/>
-      <c r="H26" s="8" t="n"/>
-      <c r="I26" s="8" t="n"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1" s="10">
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" s="9">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" s="9">
       <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Выручка за</t>
@@ -868,32 +874,32 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>9735.0 руб.</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
+          <t>20537.0 руб.</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>год</t>
         </is>
       </c>
-      <c r="E27" s="8" t="n"/>
-      <c r="F27" s="8" t="n"/>
-      <c r="G27" s="8" t="n"/>
-      <c r="H27" s="8" t="n"/>
-      <c r="I27" s="8" t="n"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1" s="10">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
-      <c r="D28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
-      <c r="G28" s="8" t="n"/>
-      <c r="H28" s="8" t="n"/>
-      <c r="I28" s="8" t="n"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1" s="10">
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1" s="9">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1" s="9">
       <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Охват рынка за</t>
@@ -901,233 +907,233 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>22.2%</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>год</t>
         </is>
       </c>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
-      <c r="G29" s="8" t="n"/>
-      <c r="H29" s="8" t="n"/>
-      <c r="I29" s="8" t="n"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1" s="10">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
-      <c r="D30" s="8" t="n"/>
-      <c r="E30" s="8" t="n"/>
-      <c r="F30" s="8" t="n"/>
-      <c r="G30" s="8" t="n"/>
-      <c r="H30" s="8" t="n"/>
-      <c r="I30" s="8" t="n"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" s="10">
-      <c r="A31" s="8" t="n"/>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
-      <c r="G31" s="8" t="n"/>
-      <c r="H31" s="8" t="n"/>
-      <c r="I31" s="8" t="n"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1" s="10">
-      <c r="A32" s="8" t="n"/>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
-      <c r="E32" s="8" t="n"/>
-      <c r="F32" s="8" t="n"/>
-      <c r="G32" s="8" t="n"/>
-      <c r="H32" s="8" t="n"/>
-      <c r="I32" s="8" t="n"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1" s="10">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="8" t="n"/>
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="8" t="n"/>
-      <c r="G33" s="8" t="n"/>
-      <c r="H33" s="8" t="n"/>
-      <c r="I33" s="8" t="n"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" s="10">
-      <c r="A34" s="8" t="n"/>
-      <c r="B34" s="8" t="n"/>
-      <c r="C34" s="8" t="n"/>
-      <c r="D34" s="8" t="n"/>
-      <c r="E34" s="8" t="n"/>
-      <c r="F34" s="8" t="n"/>
-      <c r="G34" s="8" t="n"/>
-      <c r="H34" s="8" t="n"/>
-      <c r="I34" s="8" t="n"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" s="10">
-      <c r="A35" s="8" t="n"/>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="D35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
-      <c r="F35" s="8" t="n"/>
-      <c r="G35" s="8" t="n"/>
-      <c r="H35" s="8" t="n"/>
-      <c r="I35" s="8" t="n"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1" s="10">
-      <c r="A36" s="8" t="n"/>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="D36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
-      <c r="G36" s="8" t="n"/>
-      <c r="H36" s="8" t="n"/>
-      <c r="I36" s="8" t="n"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1" s="10">
-      <c r="A37" s="8" t="n"/>
-      <c r="B37" s="8" t="n"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="D37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
-      <c r="G37" s="8" t="n"/>
-      <c r="H37" s="8" t="n"/>
-      <c r="I37" s="8" t="n"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1" s="10">
-      <c r="A38" s="8" t="n"/>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
-      <c r="F38" s="8" t="n"/>
-      <c r="G38" s="8" t="n"/>
-      <c r="H38" s="8" t="n"/>
-      <c r="I38" s="8" t="n"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1" s="10">
-      <c r="A39" s="8" t="n"/>
-      <c r="B39" s="8" t="n"/>
-      <c r="C39" s="8" t="n"/>
-      <c r="D39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
-      <c r="G39" s="8" t="n"/>
-      <c r="H39" s="8" t="n"/>
-      <c r="I39" s="8" t="n"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1" s="10">
-      <c r="A40" s="8" t="n"/>
-      <c r="B40" s="8" t="n"/>
-      <c r="C40" s="8" t="n"/>
-      <c r="D40" s="8" t="n"/>
-      <c r="E40" s="8" t="n"/>
-      <c r="F40" s="8" t="n"/>
-      <c r="G40" s="8" t="n"/>
-      <c r="H40" s="8" t="n"/>
-      <c r="I40" s="8" t="n"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1" s="10">
-      <c r="A41" s="8" t="n"/>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" s="9">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1" s="9">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1" s="9">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" s="9">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1" s="9">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" s="9">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1" s="9">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1" s="9">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1" s="9">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1" s="9">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1" s="9">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1" s="9">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Отчет сформировал</t>
         </is>
       </c>
-      <c r="C41" s="8" t="n"/>
+      <c r="C41" s="1" t="n"/>
       <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1" s="10">
-      <c r="A42" s="8" t="n"/>
-      <c r="B42" s="8" t="n"/>
-      <c r="C42" s="8" t="n"/>
-      <c r="D42" s="13" t="inlineStr">
+    <row r="42" ht="16.5" customHeight="1" s="9">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="8" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
       </c>
-      <c r="E42" s="13" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>(ФИО)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1" s="10">
-      <c r="A43" s="8" t="n"/>
-      <c r="B43" s="8" t="n"/>
-      <c r="C43" s="8" t="n"/>
-      <c r="D43" s="8" t="n"/>
-      <c r="E43" s="8" t="n"/>
-      <c r="F43" s="8" t="n"/>
-      <c r="G43" s="8" t="n"/>
-      <c r="H43" s="8" t="n"/>
-      <c r="I43" s="8" t="n"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1" s="10">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="n"/>
-      <c r="H44" s="8" t="n"/>
-      <c r="I44" s="8" t="n"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1" s="10">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="D45" s="8" t="n"/>
-      <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="n"/>
-      <c r="G45" s="8" t="n"/>
-      <c r="H45" s="8" t="n"/>
-      <c r="I45" s="8" t="n"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1" s="10">
-      <c r="A46" s="8" t="n"/>
-      <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n"/>
-    </row>
-    <row r="47" ht="17.25" customHeight="1" s="10">
-      <c r="A47" s="8" t="n"/>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1" s="10">
-      <c r="A48" s="8" t="n"/>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="D48" s="8" t="n"/>
-      <c r="E48" s="8" t="n"/>
-      <c r="F48" s="8" t="n"/>
-      <c r="G48" s="8" t="n"/>
-      <c r="H48" s="8" t="n"/>
-      <c r="I48" s="8" t="n"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1" s="10">
-      <c r="A49" s="8" t="n"/>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="D49" s="8" t="n"/>
-      <c r="E49" s="8" t="n"/>
-      <c r="F49" s="8" t="n"/>
-      <c r="G49" s="8" t="n"/>
-      <c r="H49" s="8" t="n"/>
-      <c r="I49" s="8" t="n"/>
+    <row r="43" ht="16.5" customHeight="1" s="9">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1" s="9">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1" s="9">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1" s="9">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1" s="9">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1" s="9">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1" s="9">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1144,7 +1150,7 @@
     <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="74" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="73" horizontalDpi="360" verticalDpi="360"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Форма отчета.xlsx
+++ b/Форма отчета.xlsx
@@ -701,7 +701,7 @@
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>'08.09.2024' - '15.09.2024'</t>
+          <t>'02.10.2024' - '09.10.2024'</t>
         </is>
       </c>
       <c r="D16" s="13" t="n"/>
@@ -768,13 +768,13 @@
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" s="9">
@@ -787,13 +787,13 @@
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="7" t="n"/>
       <c r="E21" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="9">
@@ -806,13 +806,13 @@
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="7" t="n"/>
       <c r="E22" s="2" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F22" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1" s="9">
@@ -825,13 +825,13 @@
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G23" s="16" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="9">
@@ -874,7 +874,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>20537.0 руб.</t>
+          <t>0.0 руб.</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
